--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klausheuken/Documents/WebDev/Excel-Vergleich/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B98B627-7310-054B-8709-DF1C635D29F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A27442-15DE-7744-A6A1-D77C76DC93D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2200" windowWidth="28040" windowHeight="17360" xr2:uid="{81E48CA3-C675-C14F-8724-CCD9F942CC73}"/>
   </bookViews>
@@ -438,7 +438,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -459,7 +459,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>142004</v>
+        <v>142390</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>142006</v>
+        <v>142010</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>142010</v>
+        <v>142412</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
